--- a/output.xlsx
+++ b/output.xlsx
@@ -435,7 +435,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1202</v>
+        <v>2304</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -443,23 +443,23 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>856</v>
+        <v>1358</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>591</v>
+        <v>3223</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4715</v>
+        <v>2818</v>
       </c>
       <c r="B5" t="n">
         <v>30</v>
@@ -467,210 +467,210 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>190</v>
+        <v>2083</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3638</v>
+        <v>591</v>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4713</v>
+        <v>502</v>
       </c>
       <c r="B8" t="n">
-        <v>750</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>575</v>
+        <v>1127</v>
       </c>
       <c r="B9" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3035</v>
+        <v>1190</v>
       </c>
       <c r="B10" t="n">
-        <v>12000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3296</v>
+        <v>3142</v>
       </c>
       <c r="B11" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1774</v>
+        <v>4207</v>
       </c>
       <c r="B12" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2640</v>
+        <v>4050</v>
       </c>
       <c r="B13" t="n">
-        <v>2250</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3205</v>
+        <v>2753</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>482</v>
+        <v>3186</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3003</v>
+        <v>3805</v>
       </c>
       <c r="B16" t="n">
-        <v>144</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>3908</v>
       </c>
       <c r="B17" t="n">
-        <v>144</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2171</v>
+        <v>2467</v>
       </c>
       <c r="B18" t="n">
-        <v>720</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4023</v>
+        <v>160</v>
       </c>
       <c r="B19" t="n">
-        <v>432</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3287</v>
+        <v>2422</v>
       </c>
       <c r="B20" t="n">
-        <v>432</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4956</v>
+        <v>2206</v>
       </c>
       <c r="B21" t="n">
-        <v>2160</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3581</v>
+        <v>337</v>
       </c>
       <c r="B22" t="n">
-        <v>1296</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66</v>
+        <v>3356</v>
       </c>
       <c r="B23" t="n">
-        <v>6480</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2359</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>432</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3936</v>
+        <v>2088</v>
       </c>
       <c r="B25" t="n">
-        <v>2160</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="B26" t="n">
-        <v>1728</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3159</v>
+        <v>1552</v>
       </c>
       <c r="B27" t="n">
-        <v>8640</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3505</v>
+        <v>2578</v>
       </c>
       <c r="B28" t="n">
-        <v>6912</v>
+        <v>4320000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1146</v>
+        <v>145</v>
       </c>
       <c r="B29" t="n">
-        <v>34560</v>
+        <v>12960000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>588</v>
+        <v>820</v>
       </c>
       <c r="B30" t="n">
-        <v>69120</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1708</v>
+        <v>1029</v>
       </c>
       <c r="B31" t="n">
-        <v>103680</v>
+        <v>7200000</v>
       </c>
     </row>
   </sheetData>
